--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value795.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value795.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.683985747613588</v>
+        <v>1.653870582580566</v>
       </c>
       <c r="B1">
-        <v>3.095800053022286</v>
+        <v>3.598509311676025</v>
       </c>
       <c r="C1">
-        <v>2.609954717873152</v>
+        <v>1.219458222389221</v>
       </c>
       <c r="D1">
-        <v>2.046193588498367</v>
+        <v>0.9763553142547607</v>
       </c>
       <c r="E1">
-        <v>1.277165056871734</v>
+        <v>0.4960718750953674</v>
       </c>
     </row>
   </sheetData>
